--- a/model/src/rag_no_prompting_easy_Llama1B_results.xlsx
+++ b/model/src/rag_no_prompting_easy_Llama1B_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0ACD47-5FFD-442A-8A2C-FC10EA301ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F2604-CF12-4F9F-9510-ECB971BFA3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>question</t>
   </si>
@@ -126,9 +126,6 @@
 Document 2:
 Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism postgraduate First Semester 1 st year - Fall Semester Course Units Type Duration ECTS Data Science for Hospitaly and Tourism II Mandatory Semester 7,5 Digital Marketing Mandatory Semester 7,5 Project in Analytics for Hospitality and Tourism Mandatory Semester 7,5 Smart Tourism Mandatory Semester 7,5 Course UnitKeywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
 Metadata: {'course_name': 'Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '3103ae2a-cac2-4423-b15e-b684b8bb7f14', 'source': 'postgraduate-program-in-business-intelligence-and-analytics-for-hospitality-tourism_Study plan.txt'}</t>
-  </si>
-  <si>
-    <t>What are the course units of the Fall semesters for the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics?</t>
   </si>
   <si>
     <t>The Fall semesters for the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics include the following course units:
@@ -991,21 +988,6 @@
 Metadata: {'course_name': 'Postgraduate Program In Business Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '8e619601-aa42-4c72-9c50-c2b40178f697', 'source': 'postgraduate-program-in-business-intelligence_Study plan.txt'}</t>
   </si>
   <si>
-    <t>What programming languages are taught in the Bachelor's in Data Science?</t>
-  </si>
-  <si>
-    <t>Machine Learning I, Programming for Data Science, Statistics, and Database Management are taught in the Bachelor's in Data Science.</t>
-  </si>
-  <si>
-    <t>Document 1:
-Data Science bachelor What is the language of instruction of the course?
-The course is taught in English. Nowadays, being comfortable with the English language is a competitive advantage, which makes a difference in the global job market. NOVA IMS students have all the support to quickly adapt to the language and can always speak in Portuguese when they are unable to express themselves.
-Metadata: {'degree': 'bachelor', 'doc_type': 'main_info', 'course_name': 'Data Science', 'section': 'What is the language of instruction of the course?', 'id': 'fceef734-ee09-4571-b984-15a1216d9bc7'}
-Document 2:
-Data Science bachelor First Semester 2 nd year - Fall Semester Course Units Duration Type Contact Hours Total Workload ECTS Data preprocessing and visualization Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Databases Semester Mandatory TP - 64,5 | S - 3 | OT - 7,5 168 6 Machine Learning I Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Programming for Data Science Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Statistical Inference Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Show subtitles T – Theoretical Teaching; TP – Theoretical/ Practical Teaching; TC – Field Work; PL – Theoretical/ Practical Teaching; S – Seminar; OT – Tutor Group; ** – Course Unit available in both semesters; Semestre 2 - 1;Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'study_plan', 'id': 'c085af09-e2ca-4434-a7a5-65d923355fda', 'source': 'bachelor_data-science_studyplan_text.txt'}</t>
-  </si>
-  <si>
     <t>How does the Master in Information Management, with a specialization in Business Intelligence prepare students for the digital transformation of businesses?</t>
   </si>
   <si>
@@ -1368,6 +1350,9 @@
 * Business Impact of Digital Projects mandatory quarterly 3,5 E-Business mandatory quarterly 4 Emerging Technologies for Innovation mandatory quarterly 3,5 Industry 4.0 mandatory quarterly 4 Architectures for Information Systems elective quarterly 3,5 Big Data Analytics elective semester 7,5 Blockchain elective quarterly 4 Blockchain &amp; CryptoAssets elective quarterly 4 Business Intelligence II elective semester 7,5 Consumer Behavior Insights elective semester 7,5 Credit Risk Management elective quarterly 3,5 Customer Relationship Management Systems elective semester 7,5 Cybersecurity elective semester 7,5 Data Collection, Administrative Sources and Big Data elective semester 6 Data Mining II elective semester 7,5 Data Visualization elective semester 7,5 Data-driven decision making elective quarterly 4 Digital Marketing &amp; E-Commerce elective semester 7,5 Econometrics Methods elective semester 7,5 Enterprise Cloud Mobility elective semester 7,5 Financial Derivatives and Risk Management elective semester 7,5 Generative Artificial Intelligence elective semester 7,5 Information Project Management elective quarterly 4 Information Project Management II elective quarterly 3,5 Innovation Management and Design Thinking elective semester 7,5 Knowledge Management elective quarterly 7,5 Leadership and People Management elective semester 7,5 Market and Liquidity Risk Management elective quarterly 4 Market Research elective semester 7,5 Process Mining Powered By Nokia elective semester 7,5 Sampling Theory and Methods elective semester 7,5 Search Engine Optimization elective quarterly 4 Smart and Sustainable Cities elective semester 7,5 Social Media Analytics elective semester 7,5 Study Track: The study track includes the following courses:
 * Postgraduate Program In Digital Transformation postgraduate Second Semester 1 st year - Spring Semester 
 * Business Impact of Digital Projects mandatory quarterly 3,5 E-Business mandatory quarterly 4 Emerging Technologies for Innovation mandatory quarterly 3,5 Industry 4.0 mandatory quarterly 4 Architectures for Information Systems elective quarterly 3,5 Big Data Analytics elective semester 7,5 Blockchain elective quarterly 4 Blockchain &amp; CryptoAssets elective quarterly 4 Business Intelligence II elective semester 7,5 Consumer Behavior Insights elective semester 7,5 Credit Risk Management elective quarterly 3,5 Customer Relationship Management Systems elective semester 7,5 Cybersecurity elective semester 7,5 Data Collection, Administrative Sources and Big Data elective semester 6 Data Mining II elective semester 7,5 Data Visualization elective semester 7,5 Data-driven decision making elective quarterly 4 Digital Marketing &amp; E-Commerce elective semester 7,5 Econometrics Methods elective semester 7,5 Enterprise Cloud Mobility elective semester 7,5 Financial Derivatives and Risk Management elective semester 7,5 Generative Artificial Intelligence elective semester 7,5 Information Project Management elective quarterly 4 Information Project Management II elective quarterly 3,5 Innovation Management and Design Thinking elective semester 7,5 Innovation Management and Design Thinking electives quarter 7,5 Knowledge Management elective quarterly 7,5 Leadership and People Management elective semester 7,5 Market and Liquidity Risk Management elective quarterly 4 Market Research elective semester 7,5 Process Mining Powered By Nokia electives quarter 7,5 Sampling Theory and Methods electives quarter 7,5 Search Engine Optimization electives quarter 4 Smart and Sustainable Cities electives quarter 7,5 Social Media Analytics electives quarter 7,5 Study</t>
+  </si>
+  <si>
+    <t>What are the mandatory course units of the Fall semesters for the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics?</t>
   </si>
 </sst>
 </file>
@@ -1746,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1772,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1843,15 +1828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6">
         <v>60.522154808044426</v>
@@ -1862,13 +1847,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7">
         <v>251.40532684326169</v>
@@ -1879,13 +1864,13 @@
     </row>
     <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
       <c r="D8">
         <v>1457.8815371990199</v>
@@ -1896,13 +1881,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9">
         <v>120.902862071991</v>
@@ -1913,13 +1898,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10">
         <v>215.6889142990112</v>
@@ -1930,13 +1915,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
       <c r="D11">
         <v>111.48223876953119</v>
@@ -1947,13 +1932,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
       <c r="D12">
         <v>80.507282257080078</v>
@@ -1964,13 +1949,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
       <c r="D13">
         <v>89.728183031082153</v>
@@ -1981,13 +1966,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
       <c r="D14">
         <v>95.762714862823486</v>
@@ -1998,13 +1983,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
       <c r="D15">
         <v>74.26421070098877</v>
@@ -2015,13 +2000,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
       <c r="D16">
         <v>102.439297914505</v>
@@ -2032,13 +2017,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
       <c r="D17">
         <v>51.333797693252563</v>
@@ -2049,13 +2034,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
       <c r="D18">
         <v>80.43251633644104</v>
@@ -2066,13 +2051,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
       </c>
       <c r="D19">
         <v>60.557591199874878</v>
@@ -2083,13 +2068,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
       </c>
       <c r="D20">
         <v>43.153728008270257</v>
@@ -2100,13 +2085,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
       </c>
       <c r="D21">
         <v>56.094154834747307</v>
@@ -2117,13 +2102,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
       </c>
       <c r="D22">
         <v>93.849139928817749</v>
@@ -2134,13 +2119,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
       </c>
       <c r="D23">
         <v>62.652354717254639</v>
@@ -2151,13 +2136,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
       </c>
       <c r="D24">
         <v>68.657162427902222</v>
@@ -2168,13 +2153,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
       </c>
       <c r="D25">
         <v>66.390207767486572</v>
@@ -2185,13 +2170,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
       </c>
       <c r="D26">
         <v>111.4875023365021</v>
@@ -2202,13 +2187,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
       </c>
       <c r="D27">
         <v>148.57136201858521</v>
@@ -2219,13 +2204,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
       </c>
       <c r="D28">
         <v>71.014257669448853</v>
@@ -2236,13 +2221,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
       </c>
       <c r="D29">
         <v>138.49586772918701</v>
@@ -2253,13 +2238,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
       </c>
       <c r="D30">
         <v>127.2830057144165</v>
@@ -2270,16 +2255,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
       <c r="D31">
-        <v>51.255742311477661</v>
+        <v>86.220065355300903</v>
       </c>
       <c r="E31" s="4">
         <v>0.45</v>
@@ -2287,33 +2272,33 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>86.220065355300903</v>
+        <v>61.81853985786438</v>
       </c>
       <c r="E32" s="4">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
       <c r="D33">
-        <v>61.81853985786438</v>
+        <v>102.24278211593629</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2321,16 +2306,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
         <v>96</v>
       </c>
-      <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
       <c r="D34">
-        <v>102.24278211593629</v>
+        <v>113.5207211971283</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2338,50 +2323,50 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
       <c r="D35">
-        <v>113.5207211971283</v>
+        <v>123.11229729652401</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
         <v>101</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>102</v>
       </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
       <c r="D36">
-        <v>123.11229729652401</v>
+        <v>125.9305341243744</v>
       </c>
       <c r="E36" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>105</v>
       </c>
-      <c r="C37" t="s">
-        <v>106</v>
-      </c>
       <c r="D37">
-        <v>125.9305341243744</v>
+        <v>115.9825036525726</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -2389,16 +2374,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
         <v>107</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
       <c r="D38">
-        <v>115.9825036525726</v>
+        <v>313.49311661720282</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -2406,16 +2391,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>111</v>
       </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
       <c r="D39">
-        <v>313.49311661720282</v>
+        <v>252.17267608642581</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2423,16 +2408,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
         <v>113</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>114</v>
       </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
       <c r="D40">
-        <v>252.17267608642581</v>
+        <v>125.323611497879</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -2440,50 +2425,50 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
         <v>116</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>117</v>
       </c>
-      <c r="C41" t="s">
-        <v>118</v>
-      </c>
       <c r="D41">
-        <v>125.323611497879</v>
+        <v>150.270791053772</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
         <v>119</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>120</v>
       </c>
-      <c r="C42" t="s">
-        <v>121</v>
-      </c>
       <c r="D42">
-        <v>150.270791053772</v>
+        <v>133.93058204650879</v>
       </c>
       <c r="E42" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>123</v>
       </c>
-      <c r="C43" t="s">
-        <v>124</v>
-      </c>
       <c r="D43">
-        <v>133.93058204650879</v>
+        <v>131.45161724090579</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -2491,33 +2476,33 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
         <v>125</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>126</v>
       </c>
-      <c r="C44" t="s">
-        <v>127</v>
-      </c>
       <c r="D44">
-        <v>131.45161724090579</v>
+        <v>119.6460564136505</v>
       </c>
       <c r="E44" s="4">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s">
         <v>128</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>129</v>
       </c>
-      <c r="C45" t="s">
-        <v>130</v>
-      </c>
       <c r="D45">
-        <v>119.6460564136505</v>
+        <v>185.2593591213226</v>
       </c>
       <c r="E45" s="4">
         <v>0.95</v>
@@ -2525,137 +2510,120 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
         <v>131</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>132</v>
       </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
       <c r="D46">
-        <v>185.2593591213226</v>
+        <v>122.81784915924069</v>
       </c>
       <c r="E46" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
         <v>134</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>135</v>
       </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
       <c r="D47">
-        <v>122.81784915924069</v>
+        <v>67.577240943908691</v>
       </c>
       <c r="E47" s="4">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="C48" t="s">
-        <v>139</v>
-      </c>
       <c r="D48">
-        <v>67.577240943908691</v>
+        <v>51.15524959564209</v>
       </c>
       <c r="E48" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
         <v>140</v>
       </c>
-      <c r="B49" t="s">
-        <v>141</v>
-      </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D49">
-        <v>51.15524959564209</v>
+        <v>82.582520246505737</v>
       </c>
       <c r="E49" s="4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D50">
-        <v>82.582520246505737</v>
+        <v>94.641165494918823</v>
       </c>
       <c r="E50" s="4">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" t="s">
         <v>145</v>
       </c>
-      <c r="B51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
-      </c>
       <c r="D51">
-        <v>94.641165494918823</v>
+        <v>95.618050813674927</v>
       </c>
       <c r="E51" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
         <v>147</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>148</v>
       </c>
-      <c r="C52" t="s">
-        <v>149</v>
-      </c>
       <c r="D52">
-        <v>95.618050813674927</v>
+        <v>90.679494380950928</v>
       </c>
       <c r="E52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53">
-        <v>90.679494380950928</v>
-      </c>
-      <c r="E53" s="4">
         <v>0.5</v>
       </c>
     </row>

--- a/model/src/rag_no_prompting_easy_Llama1B_results.xlsx
+++ b/model/src/rag_no_prompting_easy_Llama1B_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757F2604-CF12-4F9F-9510-ECB971BFA3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B663C5A-8BA2-4E49-BC7F-B3F379C34F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1731,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1873,7 +1873,7 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>1457.8815371990199</v>
+        <v>120.902862071991</v>
       </c>
       <c r="E8" s="4">
         <v>0.55000000000000004</v>
@@ -2625,6 +2625,12 @@
       </c>
       <c r="E52" s="4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f>AVERAGE(D1:D52)</f>
+        <v>109.32603854759067</v>
       </c>
     </row>
   </sheetData>
